--- a/www/Hosts.xlsx
+++ b/www/Hosts.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\hypmonbot\www\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="19980" windowHeight="9345"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Прошёл регистрацию" sheetId="2" r:id="rId1"/>
+    <sheet name="Перебрать" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>https://prohoster.info</t>
   </si>
@@ -45,9 +50,6 @@
     <t>https://www.ho.ua</t>
   </si>
   <si>
-    <t>зарегистрировался, отправи смс жду пока заработает сервер</t>
-  </si>
-  <si>
     <t>https://hyperhost.ua/</t>
   </si>
   <si>
@@ -115,13 +117,39 @@
   </si>
   <si>
     <t>http://cloverhost.net</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Регистрационные данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Login:          hypmonbot
+    Password:       FxjWQLt3eu
+    Hosting server: s3.ho.ua
+    Server Name:    hypmonbot.ho.ua
+    Server Alias:   www.hypmonbot.ho.ua
+    Quota:          1</t>
+  </si>
+  <si>
+    <t>НЕТ</t>
+  </si>
+  <si>
+    <t>Работает быстро запрещены все исходящие соединения. зарегистрировался, отправи смс жду пока заработает сервер</t>
+  </si>
+  <si>
+    <t>Редактирование php.ini</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +179,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,12 +195,137 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -176,7 +336,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,6 +354,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -203,6 +421,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -249,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +507,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +542,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -490,63 +718,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="59" style="7" customWidth="1"/>
+    <col min="13" max="27" width="114.85546875" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="1:27" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2">
+        <v>128</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>64</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
+        <v>64</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="K9" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A5" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" style="3" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
     <col min="6" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -557,12 +1009,16 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" t="s">
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -574,11 +1030,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -590,11 +1046,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -606,223 +1062,209 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="1">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
@@ -840,32 +1282,19 @@
     <hyperlink ref="A17" r:id="rId13"/>
     <hyperlink ref="A18" r:id="rId14"/>
     <hyperlink ref="A19" r:id="rId15"/>
-    <hyperlink ref="A20" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/www/Hosts.xlsx
+++ b/www/Hosts.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\hypmonbot\www\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="19980" windowHeight="9345"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Перебрать" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>https://prohoster.info</t>
   </si>
@@ -144,12 +139,15 @@
   <si>
     <t>Редактирование php.ini</t>
   </si>
+  <si>
+    <t>Домен третьего уровня</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,31 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -405,10 +379,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,10 +505,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,7 +539,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -718,54 +714,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="9" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="11" customWidth="1"/>
     <col min="12" max="12" width="59" style="7" customWidth="1"/>
     <col min="13" max="27" width="114.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:27" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="23"/>
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="19" t="s">
         <v>33</v>
       </c>
       <c r="M2" s="6"/>
@@ -784,23 +780,23 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+    <row r="3" spans="1:27" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="15"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -817,15 +813,15 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:27" ht="17.25" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -844,14 +840,14 @@
       <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="14" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -893,35 +889,35 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A8" s="13"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="K9" s="18"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="K9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
@@ -933,14 +929,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.140625" style="3" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
@@ -950,55 +946,55 @@
     <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +1085,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1156,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1174,7 +1170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1188,7 +1184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1202,7 +1198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1289,12 +1285,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/www/Hosts.xlsx
+++ b/www/Hosts.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\hypmonbot\www\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="19980" windowHeight="9345"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="19980" windowHeight="9345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Прошёл регистрацию" sheetId="2" r:id="rId1"/>
     <sheet name="Перебрать" sheetId="1" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>https://prohoster.info</t>
   </si>
@@ -142,12 +147,15 @@
   <si>
     <t>Домен третьего уровня</t>
   </si>
+  <si>
+    <t>https://gpdhost.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +396,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,12 +412,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -505,9 +513,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,6 +548,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -714,14 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="9" max="10" width="8.7109375" customWidth="1"/>
@@ -730,9 +740,9 @@
     <col min="13" max="27" width="114.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:27" s="8" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A2" s="23"/>
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
       <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
@@ -758,10 +768,10 @@
       <c r="J2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="M2" s="6"/>
@@ -780,8 +790,8 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="24"/>
+    <row r="3" spans="1:27" s="8" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -795,8 +805,8 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="20"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -813,7 +823,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="17.25" customHeight="1">
+    <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -847,7 +857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="18" customHeight="1">
+    <row r="5" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -889,35 +899,35 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="K9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
@@ -929,14 +939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" style="3" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
@@ -946,7 +956,7 @@
     <col min="10" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" s="15" customFormat="1" ht="25.5" customHeight="1">
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="26" t="s">
         <v>10</v>
@@ -977,7 +987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="15" customFormat="1" ht="28.5" customHeight="1">
+    <row r="4" spans="1:12" s="15" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -994,7 +1004,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1085,7 +1095,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1">
+    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1118,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1125,7 +1135,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1139,7 +1149,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1156,7 +1166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1170,7 +1180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1198,7 +1208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1247,6 +1257,11 @@
       </c>
       <c r="E19" s="1">
         <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1278,19 +1293,20 @@
     <hyperlink ref="A17" r:id="rId13"/>
     <hyperlink ref="A18" r:id="rId14"/>
     <hyperlink ref="A19" r:id="rId15"/>
+    <hyperlink ref="A22" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
